--- a/docs/StructureDefinition-VAMedicationAdministrationEvent.xlsx
+++ b/docs/StructureDefinition-VAMedicationAdministrationEvent.xlsx
@@ -343,6 +343,33 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>provenance-priorActor</t>
+  </si>
+  <si>
+    <t>ACTION BY LOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/provenance-priorActor}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Pointer to the user who was listed as performing the previous action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BCMA MEDICATION LOG @ACTION BY LOG 53.799-.05</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
@@ -356,34 +383,7 @@
     <t>Description of the change made.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>BCMA MEDICATION LOG @TEXT 53.799-.03</t>
-  </si>
-  <si>
-    <t>provenance-priorActor</t>
-  </si>
-  <si>
-    <t>ACTION BY LOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/provenance-priorActor}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Pointer to the user who was listed as performing the previous action.</t>
-  </si>
-  <si>
-    <t>BCMA MEDICATION LOG @ACTION BY LOG 53.799-.05</t>
   </si>
   <si>
     <t>Provenance.modifierExtension</t>
@@ -2257,10 +2257,10 @@
         <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2320,16 +2320,16 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>44</v>
@@ -2346,13 +2346,13 @@
         <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>42</v>
@@ -2370,10 +2370,10 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>115</v>
@@ -2436,16 +2436,16 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>44</v>
